--- a/data/trans_camb/P16A01-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9196335233299457</v>
+        <v>1.277173601966125</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.49241428978136</v>
+        <v>-1.669087303608013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.177335474899714</v>
+        <v>-3.917670957475067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.287338430386916</v>
+        <v>-4.391507369905924</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.542492112055504</v>
+        <v>-5.91363903122076</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.022999191726114</v>
+        <v>-5.571904275013243</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2290729537408197</v>
+        <v>0.00210515732188083</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.217085049167676</v>
+        <v>-2.16669728436723</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.366051551113177</v>
+        <v>-3.123298438479754</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.336804592121421</v>
+        <v>9.332100044322237</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.686622493827201</v>
+        <v>5.703050776869798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.530040480036215</v>
+        <v>2.386963668139812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.912341618339298</v>
+        <v>4.373075385475565</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.229755764332391</v>
+        <v>2.52988715206157</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.005684101982134</v>
+        <v>2.159341357888838</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.106089604657992</v>
+        <v>6.071800718331479</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.094615347522238</v>
+        <v>3.177949273716892</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.373263980955389</v>
+        <v>1.470378718764364</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1027812948524992</v>
+        <v>0.1128855600219488</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2111447356290926</v>
+        <v>-0.2207242099799289</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4978664080405634</v>
+        <v>-0.4886085421772743</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3995166250336572</v>
+        <v>-0.4071195066473284</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5813846593743156</v>
+        <v>-0.5298159639456803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4616141381990801</v>
+        <v>-0.4722469138226973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04325374805357304</v>
+        <v>-0.002273509860667145</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2628501638029453</v>
+        <v>-0.2588177923408649</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3877024171422789</v>
+        <v>-0.3590556435933153</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.961876309447553</v>
+        <v>1.867428014060472</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.10285197580272</v>
+        <v>1.185375690438812</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5844223312626894</v>
+        <v>0.506278559823223</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7859884976358168</v>
+        <v>0.6874078259567762</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3658496284471257</v>
+        <v>0.4658976740056529</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3206152839050881</v>
+        <v>0.3870098147228659</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.040804775338275</v>
+        <v>1.015459466017433</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5579365401632748</v>
+        <v>0.5531187243735458</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2324450438991454</v>
+        <v>0.254684065756031</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.864319071188846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.762985723545121</v>
+        <v>1.76298572354512</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.736742869568314</v>
@@ -878,7 +878,7 @@
         <v>1.09109682985043</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3273912539289908</v>
+        <v>0.3273912539289894</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.325012063311072</v>
+        <v>-3.41830177757364</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.892279338980079</v>
+        <v>-2.707959681510551</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.71572843165901</v>
+        <v>-2.065467444380267</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.086150879089363</v>
+        <v>-2.768800031506157</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.690200397514872</v>
+        <v>-3.000100001515459</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.699314871441198</v>
+        <v>-4.972659659437547</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.806416961418631</v>
+        <v>-1.838999399103888</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.806470267499366</v>
+        <v>-1.670842360484085</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.297396270892728</v>
+        <v>-2.48370845184355</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.314476486882192</v>
+        <v>4.395490209962611</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.861091143564647</v>
+        <v>4.963839174250762</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.888949159248072</v>
+        <v>5.643320611026057</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.713221813094938</v>
+        <v>6.041784193092465</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.381213711565657</v>
+        <v>5.260041934119846</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.158626943039749</v>
+        <v>2.165215348716547</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.785216373328241</v>
+        <v>3.916365861697247</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.878401672631716</v>
+        <v>3.889351463755909</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.856270563875078</v>
+        <v>2.874439423105195</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.129416665496973</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2639762805952561</v>
+        <v>0.2639762805952559</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2275457922881804</v>
@@ -983,7 +983,7 @@
         <v>0.1524150620620071</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.04573320801691431</v>
+        <v>0.04573320801691411</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4083627558332257</v>
+        <v>-0.410263989548207</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3435461610641186</v>
+        <v>-0.3344105460922269</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.211051130900817</v>
+        <v>-0.2443437278529315</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3366001725074504</v>
+        <v>-0.3084673284561909</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2930147062366368</v>
+        <v>-0.2950025936736692</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4743427189983158</v>
+        <v>-0.4930868030788079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.229167537762366</v>
+        <v>-0.221895618427755</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2121604002763055</v>
+        <v>-0.1905953164831228</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2711064870453662</v>
+        <v>-0.2891503663716071</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8959036527224128</v>
+        <v>0.9568521598822619</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.107685829008161</v>
+        <v>1.041341630374965</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.339384352963881</v>
+        <v>1.26153727050695</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9538802137971274</v>
+        <v>1.033728584764117</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9492332067889124</v>
+        <v>0.8813633588495032</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3956387146345186</v>
+        <v>0.3868501051782792</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6247923551981146</v>
+        <v>0.6437739726320754</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6514637251765207</v>
+        <v>0.6768809673409968</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4884066813398523</v>
+        <v>0.4930642780946665</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.7583672671459194</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.312255008732664</v>
+        <v>1.312255008732663</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.77240073245595</v>
@@ -1083,7 +1083,7 @@
         <v>-0.7796591786751128</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.5939386116784906</v>
+        <v>0.5939386116784919</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.00471366507650145</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.129408943705187</v>
+        <v>-2.33835285368696</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.596034455279407</v>
+        <v>-3.103482435447237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.083498710445911</v>
+        <v>-2.379531352930457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.640705857741306</v>
+        <v>-9.569023884330985</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.256923410537169</v>
+        <v>-8.630177744299562</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.856097363224908</v>
+        <v>-6.448431432673398</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.154510347046449</v>
+        <v>-2.58311657266551</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.837689754382775</v>
+        <v>-2.61095045986437</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.792159447491497</v>
+        <v>-1.701518584592479</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.470128265233257</v>
+        <v>4.157482442128922</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.284675513202004</v>
+        <v>3.800331904048285</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.244305995736728</v>
+        <v>4.922488458047767</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.287348711907379</v>
+        <v>2.537088688559609</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.630713075440234</v>
+        <v>5.866202189776492</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.605499273555848</v>
+        <v>6.18944666170061</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.081939425390591</v>
+        <v>2.945407467167655</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.553782189562339</v>
+        <v>3.669687230700799</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.622936774326579</v>
+        <v>4.636287754965103</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.09729875039725354</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1683627156440257</v>
+        <v>0.1683627156440255</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2675319943271205</v>
@@ -1188,7 +1188,7 @@
         <v>-0.07523579564979496</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0573140741993194</v>
+        <v>0.05731407419931954</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.0005610788235386428</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2244166272745708</v>
+        <v>-0.2578063342949964</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.292835653913269</v>
+        <v>-0.3160538623474757</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2317067682991222</v>
+        <v>-0.2618773902902763</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6384729855738762</v>
+        <v>-0.642522578412407</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.572238535924407</v>
+        <v>-0.5963969862628923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4068178735264448</v>
+        <v>-0.4446155218968394</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.311865800696687</v>
+        <v>-0.2612887802263085</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2741080509755973</v>
+        <v>-0.2762055549903976</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1879482586284013</v>
+        <v>-0.1822637033421834</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7358078318836634</v>
+        <v>0.6988605502546946</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7089841781223469</v>
+        <v>0.6014476296312626</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8258109377135154</v>
+        <v>0.7920708617734343</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5740101199385146</v>
+        <v>0.4800763410118381</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8830845996092721</v>
+        <v>0.9718627264401694</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.011650393298862</v>
+        <v>0.9006244170326727</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4656439101003964</v>
+        <v>0.4341942614504455</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5150348042684727</v>
+        <v>0.5391535841357</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6567443176561357</v>
+        <v>0.6646956191214862</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.7388404853539282</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.7582164695779943</v>
+        <v>-0.7582164695779949</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.033501579147213</v>
@@ -1306,7 +1306,7 @@
         <v>0.8333388148513352</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.01006825809829193</v>
+        <v>-0.01006825809829331</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.455682863649686</v>
+        <v>0.5965381464636346</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.191098439802958</v>
+        <v>-1.134259122817241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.510388295332282</v>
+        <v>-1.70378682715478</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4331008261378005</v>
+        <v>0.2560396005445917</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.816056259581121</v>
+        <v>-1.939679499190111</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.140101630296238</v>
+        <v>-3.392146466094269</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.230488234996968</v>
+        <v>1.248539112814726</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6442270175043605</v>
+        <v>-0.7866127302478021</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.610480696835045</v>
+        <v>-1.613062871259411</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.039409079419071</v>
+        <v>5.237695051296392</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.027650298628457</v>
+        <v>3.145736635266786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.202767863348516</v>
+        <v>3.113552381445726</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.483724344747789</v>
+        <v>6.334238304676224</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.346639103150559</v>
+        <v>3.395837105044413</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.626493915357459</v>
+        <v>1.43020508690817</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.096547776506254</v>
+        <v>4.90285866256219</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.525656588232766</v>
+        <v>2.486657286728162</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.617334696009922</v>
+        <v>1.728488319548578</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1059069300285413</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1086843238586442</v>
+        <v>-0.1086843238586443</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4349323968975269</v>
@@ -1411,7 +1411,7 @@
         <v>0.1194810810920783</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.001443550139342299</v>
+        <v>-0.001443550139342498</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05797181879635602</v>
+        <v>0.0712172616906474</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1532841078178638</v>
+        <v>-0.1470828927090903</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2014205407911236</v>
+        <v>-0.2185858336329852</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0343537236857932</v>
+        <v>0.02535551767374445</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.231821072236632</v>
+        <v>-0.2294679433250407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3641304683812867</v>
+        <v>-0.3886350447011867</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1599839375290457</v>
+        <v>0.1410572938998862</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08366594821837325</v>
+        <v>-0.09700084563171363</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2042649603398577</v>
+        <v>-0.2076018146545684</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8452580954760172</v>
+        <v>0.845516294747474</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5195834801330962</v>
+        <v>0.5350488731507713</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5297258302646612</v>
+        <v>0.527438191214617</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.090093031990821</v>
+        <v>1.063697559557326</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5807025267333835</v>
+        <v>0.6120473222911479</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3137228642997798</v>
+        <v>0.2595851870442498</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8509749724396118</v>
+        <v>0.7887623689786072</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4143168490630484</v>
+        <v>0.4043135913873629</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2703788466137381</v>
+        <v>0.27936073310521</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.3181494811208413</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.034481092631818</v>
+        <v>-1.034481092631819</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.510043349592383</v>
@@ -1511,7 +1511,7 @@
         <v>2.54560211345134</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.175040877174354</v>
+        <v>4.175040877174351</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.667687230829801</v>
@@ -1520,7 +1520,7 @@
         <v>1.356776746585836</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.100338943836058</v>
+        <v>2.100338943836059</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.079518752190327</v>
+        <v>-1.978860693444125</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.690915104221811</v>
+        <v>-3.727138262356806</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.534109903552923</v>
+        <v>-4.586329282473935</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.345731303731257</v>
+        <v>-1.197035357671765</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6829116673324911</v>
+        <v>-0.7577029597768694</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.45666250438186</v>
+        <v>1.240656565928298</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.5123550347774335</v>
+        <v>-0.4568451525378443</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.7342397264221221</v>
+        <v>-0.9242327288295602</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05158172163883607</v>
+        <v>-0.1296508024067675</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.273437137425024</v>
+        <v>5.151272511308474</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.983573656581027</v>
+        <v>2.747505081157037</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.220146573874705</v>
+        <v>2.299931752657812</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.207011388950317</v>
+        <v>4.430220926581928</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.234043690322006</v>
+        <v>5.20577795016686</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.65423360006015</v>
+        <v>6.99914882305899</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.740206811277271</v>
+        <v>3.923304157097598</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.450072349166987</v>
+        <v>3.496829659971899</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.441952895334546</v>
+        <v>4.273035312109916</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.0442460248316712</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1438684606720968</v>
+        <v>-0.143868460672097</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2684836224481722</v>
@@ -1616,7 +1616,7 @@
         <v>0.4526045407342962</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7423165029504256</v>
+        <v>0.7423165029504251</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2680966846054073</v>
@@ -1625,7 +1625,7 @@
         <v>0.2181148483869974</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3376495885921535</v>
+        <v>0.3376495885921537</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2219589313917898</v>
+        <v>-0.227263728292543</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.405258311812286</v>
+        <v>-0.4080488003806352</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5055802042056866</v>
+        <v>-0.4993231470175762</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1861153027150219</v>
+        <v>-0.1867380366262043</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.104853199664119</v>
+        <v>-0.09795700290770139</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1813349188100544</v>
+        <v>0.1646802949053798</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07043433948626243</v>
+        <v>-0.06927598217123164</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.09572792831857192</v>
+        <v>-0.1343450039416522</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.00809844711292879</v>
+        <v>-0.01989770232584286</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9460387419424927</v>
+        <v>0.9131627527478143</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5861989246924535</v>
+        <v>0.5476104374534941</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4678205892374255</v>
+        <v>0.4453710354553554</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.028151496220645</v>
+        <v>1.036269731399964</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.238999268751585</v>
+        <v>1.254968805696541</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.656086316210755</v>
+        <v>1.780955267758307</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7399351499574555</v>
+        <v>0.8013369882372458</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7092327436136654</v>
+        <v>0.6970478443313685</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8709750750255997</v>
+        <v>0.8591069905198775</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.037501044869067</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.616187494086395</v>
+        <v>1.616187494086392</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.953271227696377</v>
@@ -1734,7 +1734,7 @@
         <v>3.365658563572764</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.6707208270286826</v>
+        <v>0.6707208270286806</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.6052291698067149</v>
+        <v>0.1326389899533997</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.962755562323018</v>
+        <v>-2.781261495012573</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-6.188802572686606</v>
+        <v>-6.446312701358499</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.6330887864066971</v>
+        <v>0.4979234325250073</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.634320523558987</v>
+        <v>1.772772348831935</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.3544383221678322</v>
+        <v>-0.6248946354390921</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.072491769212296</v>
+        <v>1.087921174520876</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.515430268325703</v>
+        <v>1.544921028095378</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.031886266410215</v>
+        <v>-0.9883496879683346</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.596866413121901</v>
+        <v>9.197481858355053</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.669376391167531</v>
+        <v>4.782890148697067</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.291342982232472</v>
+        <v>1.911875959021145</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.866337913202737</v>
+        <v>4.618246887635563</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.376432629277814</v>
+        <v>6.555020203263318</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.737299384593695</v>
+        <v>3.905530716943213</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.094010886010198</v>
+        <v>4.967741480098555</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.222181932367505</v>
+        <v>5.331052208772183</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.828925122069439</v>
+        <v>2.735518997551432</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.798318569008807</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3195621433135312</v>
+        <v>0.3195621433135306</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5688765960113077</v>
@@ -1839,7 +1839,7 @@
         <v>0.6483130872050143</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1291982183605906</v>
+        <v>0.1291982183605902</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.07635220039812819</v>
+        <v>-0.02753942488322962</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4126053394066899</v>
+        <v>-0.398903500248411</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8832952363339218</v>
+        <v>-0.8948062088778019</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1095231480611488</v>
+        <v>0.08514209860086584</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2529697074274727</v>
+        <v>0.2944179518587628</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.06494659197366853</v>
+        <v>-0.1101367979901974</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1799491167247927</v>
+        <v>0.188358474769585</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2615250148444395</v>
+        <v>0.2614522009408017</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.175977907155447</v>
+        <v>-0.1793717912365465</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.244819936365909</v>
+        <v>2.202819894396273</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.236614274550201</v>
+        <v>1.17182086248916</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4658182078249221</v>
+        <v>0.6598972783700668</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.146769909076836</v>
+        <v>1.119996893016113</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.462825216239544</v>
+        <v>1.548249686032996</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.877512159776245</v>
+        <v>0.8978347060752978</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.100151975505894</v>
+        <v>1.11086702131491</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.168200892211289</v>
+        <v>1.196165960034216</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.652222039913924</v>
+        <v>0.616109848267299</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.008523048634945</v>
+        <v>1.252492710861526</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.4781434997766324</v>
+        <v>-0.365098483977331</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.221839161021519</v>
+        <v>-1.166901851408089</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.6690354187213186</v>
+        <v>0.5312334136638335</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.6956644774527784</v>
+        <v>0.5279955955102928</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.04642329071616189</v>
+        <v>-0.1813650206705632</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.372411788251635</v>
+        <v>1.251377784798287</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.4918794855662134</v>
+        <v>0.4052477435206817</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.1569177447622041</v>
+        <v>-0.1828937731827869</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.928128308420994</v>
+        <v>3.938422314980657</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.11085784145561</v>
+        <v>2.148201240919727</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.448255036069469</v>
+        <v>1.492318778860094</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.289498166852931</v>
+        <v>3.097014272028049</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.349747754526774</v>
+        <v>3.255436177342302</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.230466714558216</v>
+        <v>2.272584780679448</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.20291959228038</v>
+        <v>3.169159832305465</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.277049510318712</v>
+        <v>2.259425338319417</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.567123727122783</v>
+        <v>1.515867030450007</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1421788059242214</v>
+        <v>0.1645260834028194</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.06448872403914466</v>
+        <v>-0.04915622937667636</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1613003103593314</v>
+        <v>-0.1601389114345651</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.0849456182696004</v>
+        <v>0.0740568388481595</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.0966895006920962</v>
+        <v>0.07354247153681211</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.006048829620575941</v>
+        <v>-0.02773769444811739</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1934949784781069</v>
+        <v>0.1709992115134723</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.06833605664095906</v>
+        <v>0.05446614655450065</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.02210416151022258</v>
+        <v>-0.02619048517485108</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6381307528498081</v>
+        <v>0.6111782667111336</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3428712031156321</v>
+        <v>0.3460648857553038</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.232793441154841</v>
+        <v>0.2337115245775838</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5653018158442866</v>
+        <v>0.5262756345479941</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5829289982874115</v>
+        <v>0.5751722215129058</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3866970379732768</v>
+        <v>0.3889876142919819</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5093702145377994</v>
+        <v>0.5049136413234686</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3737958316149714</v>
+        <v>0.3599580321651501</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2533010273298668</v>
+        <v>0.242417741545973</v>
       </c>
     </row>
     <row r="46">
